--- a/field_rating.xlsx
+++ b/field_rating.xlsx
@@ -1,21 +1,273 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\vegetation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4B9550-55C7-41C9-9FA2-FE684C84563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+  <si>
+    <t>Field_2025</t>
+  </si>
+  <si>
+    <t>Month Sampled</t>
+  </si>
+  <si>
+    <t>avg_legume</t>
+  </si>
+  <si>
+    <t>grass_forb</t>
+  </si>
+  <si>
+    <t>RCG</t>
+  </si>
+  <si>
+    <t>avg_bare</t>
+  </si>
+  <si>
+    <t>avg_thatch</t>
+  </si>
+  <si>
+    <t>total_harvested</t>
+  </si>
+  <si>
+    <t>total_species</t>
+  </si>
+  <si>
+    <t>dominant_score</t>
+  </si>
+  <si>
+    <t>regrowth_rate</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>live_rating</t>
+  </si>
+  <si>
+    <t>bare_rating</t>
+  </si>
+  <si>
+    <t>legume_rating</t>
+  </si>
+  <si>
+    <t>regrowth_rating</t>
+  </si>
+  <si>
+    <t>erosion_rating</t>
+  </si>
+  <si>
+    <t>compaction_rating</t>
+  </si>
+  <si>
+    <t>Barberry Woods</t>
+  </si>
+  <si>
+    <t>Briar</t>
+  </si>
+  <si>
+    <t>Broad Meadow</t>
+  </si>
+  <si>
+    <t>Bull</t>
+  </si>
+  <si>
+    <t>Drainage</t>
+  </si>
+  <si>
+    <t>GP1A</t>
+  </si>
+  <si>
+    <t>GP1B</t>
+  </si>
+  <si>
+    <t>GP2A</t>
+  </si>
+  <si>
+    <t>GP2B</t>
+  </si>
+  <si>
+    <t>GP3</t>
+  </si>
+  <si>
+    <t>GP4A</t>
+  </si>
+  <si>
+    <t>GP4B</t>
+  </si>
+  <si>
+    <t>GP4C</t>
+  </si>
+  <si>
+    <t>GP5A</t>
+  </si>
+  <si>
+    <t>GP5B</t>
+  </si>
+  <si>
+    <t>GP5C</t>
+  </si>
+  <si>
+    <t>GP5D</t>
+  </si>
+  <si>
+    <t>GP6A</t>
+  </si>
+  <si>
+    <t>GP6B</t>
+  </si>
+  <si>
+    <t>GP6C</t>
+  </si>
+  <si>
+    <t>GP7</t>
+  </si>
+  <si>
+    <t>GP7A</t>
+  </si>
+  <si>
+    <t>GP8A</t>
+  </si>
+  <si>
+    <t>GP8B</t>
+  </si>
+  <si>
+    <t>GP8C</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>Jimmy's Wet Meadow</t>
+  </si>
+  <si>
+    <t>Lamson Hill</t>
+  </si>
+  <si>
+    <t>Lamson Middle</t>
+  </si>
+  <si>
+    <t>Lamson North</t>
+  </si>
+  <si>
+    <t>Leo's</t>
+  </si>
+  <si>
+    <t>Long Causeway</t>
+  </si>
+  <si>
+    <t>Long Meadow</t>
+  </si>
+  <si>
+    <t>Lower Barberry</t>
+  </si>
+  <si>
+    <t>Lower Sunset</t>
+  </si>
+  <si>
+    <t>Lower Triangle</t>
+  </si>
+  <si>
+    <t>Lower Underhill</t>
+  </si>
+  <si>
+    <t>POW West</t>
+  </si>
+  <si>
+    <t>Plains</t>
+  </si>
+  <si>
+    <t>Plains Woods North</t>
+  </si>
+  <si>
+    <t>Playground</t>
+  </si>
+  <si>
+    <t>Playground Pond</t>
+  </si>
+  <si>
+    <t>Pond</t>
+  </si>
+  <si>
+    <t>Sunset Field</t>
+  </si>
+  <si>
+    <t>Sunset Hill</t>
+  </si>
+  <si>
+    <t>Underhill</t>
+  </si>
+  <si>
+    <t>Underhill Wet Meadow</t>
+  </si>
+  <si>
+    <t>Upper Triangle</t>
+  </si>
+  <si>
+    <t>Williams 1A</t>
+  </si>
+  <si>
+    <t>Williams Central</t>
+  </si>
+  <si>
+    <t>Williams West</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>sum_score</t>
+  </si>
+  <si>
+    <t>total possible</t>
+  </si>
+  <si>
+    <t>35 points</t>
+  </si>
+  <si>
+    <t>sum_score based on:</t>
+  </si>
+  <si>
+    <t>some columns have missing data,</t>
+  </si>
+  <si>
+    <t>scores are lower as a result</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +315,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +367,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +401,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +436,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,70 +612,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="15.08984375" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" customWidth="1"/>
+    <col min="14" max="14" width="14.1796875" customWidth="1"/>
+    <col min="15" max="15" width="16.36328125" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="17.81640625" customWidth="1"/>
+    <col min="18" max="18" width="18.1796875" customWidth="1"/>
+    <col min="19" max="19" width="10.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Field_2025</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Month Sampled</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>avg_legume</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>grass_forb</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>avg_inv_grass</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>avg_bare</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>avg_thatch</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>total_species</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>dominant_score</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>regrowth_rate</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Barberry Woods</t>
-        </is>
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -434,51 +716,106 @@
         <v>58.75</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>114</v>
       </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Briar</t>
-        </is>
+      <c r="J2">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="L2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f>SUM(J2,M2,N2,O2,P2,Q2,R2)</f>
+        <v>17.305555555555557</v>
+      </c>
+      <c r="U2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>21.3636363636364</v>
+        <v>21.363636363636399</v>
       </c>
       <c r="D3">
         <v>1.330434782608694</v>
       </c>
       <c r="E3">
-        <v>0.454545454545455</v>
+        <v>0.45454545454545497</v>
       </c>
       <c r="F3">
         <v>18.63636363636364</v>
       </c>
       <c r="G3">
-        <v>7.454545454545454</v>
+        <v>7.4545454545454541</v>
       </c>
       <c r="H3">
+        <v>11055.987999999999</v>
+      </c>
+      <c r="I3">
         <v>34</v>
       </c>
-      <c r="I3">
-        <v>19</v>
-      </c>
       <c r="J3">
+        <v>4.1034482758620694</v>
+      </c>
+      <c r="K3">
         <v>114.9392857142855</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Broad Meadow</t>
-        </is>
+      <c r="L3">
+        <v>73.909090909090907</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S54" si="0">SUM(J3,M3,N3,O3,P3,Q3,R3)</f>
+        <v>21.103448275862071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -499,14 +836,40 @@
         <v>16.75</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>64</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Bull</t>
-        </is>
+      <c r="L4">
+        <v>80.75</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -515,7 +878,7 @@
         <v>6.95</v>
       </c>
       <c r="D5">
-        <v>3.257575757575757</v>
+        <v>3.2575757575757569</v>
       </c>
       <c r="E5">
         <v>12.75</v>
@@ -527,17 +890,46 @@
         <v>13.35</v>
       </c>
       <c r="H5">
+        <v>4295.2</v>
+      </c>
+      <c r="I5">
         <v>81</v>
       </c>
-      <c r="I5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Drainage</t>
-        </is>
+      <c r="J5">
+        <v>3.1818181818181821</v>
+      </c>
+      <c r="L5">
+        <v>86.65</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>25.18181818181818</v>
+      </c>
+      <c r="U5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -558,17 +950,46 @@
         <v>12.975</v>
       </c>
       <c r="H6">
+        <v>43587.68</v>
+      </c>
+      <c r="I6">
         <v>56</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>112.4537037037037</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Drainage</t>
-        </is>
+      <c r="L6">
+        <v>85.775000000000006</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="U6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>22</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -589,17 +1010,46 @@
         <v>12.975</v>
       </c>
       <c r="H7">
+        <v>43587.68</v>
+      </c>
+      <c r="I7">
         <v>56</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>112.4537037037037</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GP1A</t>
-        </is>
+      <c r="L7">
+        <v>85.775000000000006</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="U7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>23</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -614,26 +1064,55 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.579047619047619</v>
+        <v>4.5790476190476186</v>
       </c>
       <c r="G8">
-        <v>9.420952380952381</v>
+        <v>9.4209523809523805</v>
       </c>
       <c r="H8">
+        <v>9054.5</v>
+      </c>
+      <c r="I8">
         <v>57</v>
       </c>
-      <c r="I8">
-        <v>18</v>
-      </c>
       <c r="J8">
-        <v>132.4332184750735</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>GP1B</t>
-        </is>
+        <v>4.4117647058823524</v>
+      </c>
+      <c r="K8">
+        <v>132.43321847507349</v>
+      </c>
+      <c r="L8">
+        <v>86</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>24.411764705882351</v>
+      </c>
+      <c r="U8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>24</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -642,7 +1121,7 @@
         <v>5.2</v>
       </c>
       <c r="D9">
-        <v>1.974169741697417</v>
+        <v>1.9741697416974171</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -654,20 +1133,49 @@
         <v>17.5</v>
       </c>
       <c r="H9">
+        <v>18206.848000000002</v>
+      </c>
+      <c r="I9">
         <v>65</v>
       </c>
-      <c r="I9">
-        <v>17</v>
-      </c>
       <c r="J9">
-        <v>187.9731092436975</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GP2A</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>187.97310924369751</v>
+      </c>
+      <c r="L9">
+        <v>80.7</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="U9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -682,35 +1190,64 @@
         <v>5.28571428571429</v>
       </c>
       <c r="F10">
-        <v>0.09523809523809523</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="G10">
-        <v>25.95238095238095</v>
+        <v>25.952380952380949</v>
       </c>
       <c r="H10">
+        <v>10429.5</v>
+      </c>
+      <c r="I10">
         <v>96</v>
       </c>
-      <c r="I10">
-        <v>15</v>
-      </c>
       <c r="J10">
-        <v>179.1099415204679</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>GP2B</t>
-        </is>
+        <v>2.6315789473684208</v>
+      </c>
+      <c r="K10">
+        <v>179.10994152046791</v>
+      </c>
+      <c r="L10">
+        <v>73.952380952380949</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>22.631578947368421</v>
+      </c>
+      <c r="U10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11">
-        <v>27.2380952380952</v>
+        <v>27.238095238095202</v>
       </c>
       <c r="D11">
-        <v>1.986681465038845</v>
+        <v>1.9866814650388449</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -722,20 +1259,49 @@
         <v>11.90476190476191</v>
       </c>
       <c r="H11">
+        <v>27370.161</v>
+      </c>
+      <c r="I11">
         <v>57</v>
       </c>
-      <c r="I11">
+      <c r="J11">
+        <v>3.2307692307692308</v>
+      </c>
+      <c r="K11">
+        <v>100.1594629156011</v>
+      </c>
+      <c r="L11">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>24.23076923076923</v>
+      </c>
+      <c r="U11" t="s">
         <v>17</v>
       </c>
-      <c r="J11">
-        <v>100.1594629156011</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>GP3</t>
-        </is>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -756,20 +1322,46 @@
         <v>20.5</v>
       </c>
       <c r="H12">
+        <v>83024.88</v>
+      </c>
+      <c r="I12">
         <v>81</v>
       </c>
-      <c r="I12">
-        <v>19</v>
-      </c>
       <c r="J12">
-        <v>167.954457939721</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>GP4A</t>
-        </is>
+        <v>4.8666666666666663</v>
+      </c>
+      <c r="K12">
+        <v>167.95445793972101</v>
+      </c>
+      <c r="L12">
+        <v>77.25</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>24.866666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -790,26 +1382,55 @@
         <v>13.35</v>
       </c>
       <c r="H13">
+        <v>2486.9699999999998</v>
+      </c>
+      <c r="I13">
         <v>65</v>
       </c>
-      <c r="I13">
-        <v>24</v>
-      </c>
       <c r="J13">
-        <v>154.029051383399</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>GP4B</t>
-        </is>
+        <v>4.7333333333333334</v>
+      </c>
+      <c r="K13">
+        <v>154.02905138339901</v>
+      </c>
+      <c r="L13">
+        <v>83.25</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>25.733333333333334</v>
+      </c>
+      <c r="U13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>29</v>
       </c>
       <c r="B14">
         <v>8</v>
       </c>
       <c r="C14">
-        <v>19.6363636363636</v>
+        <v>19.636363636363601</v>
       </c>
       <c r="D14">
         <v>1.615384615384615</v>
@@ -821,23 +1442,52 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.636363636363636</v>
+        <v>3.6363636363636358</v>
       </c>
       <c r="H14">
+        <v>8857.7999999999993</v>
+      </c>
+      <c r="I14">
         <v>61</v>
       </c>
-      <c r="I14">
-        <v>19</v>
-      </c>
       <c r="J14">
-        <v>203.4367081807083</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>GP4C</t>
-        </is>
+        <v>4.0285714285714294</v>
+      </c>
+      <c r="K14">
+        <v>203.43670818070831</v>
+      </c>
+      <c r="L14">
+        <v>96.36363636363636</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>29.028571428571428</v>
+      </c>
+      <c r="U14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>30</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -846,7 +1496,7 @@
         <v>17.95</v>
       </c>
       <c r="D15">
-        <v>2.013888888888889</v>
+        <v>2.0138888888888888</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -858,20 +1508,46 @@
         <v>16.5</v>
       </c>
       <c r="H15">
+        <v>7184.0519999999997</v>
+      </c>
+      <c r="I15">
         <v>52</v>
       </c>
-      <c r="I15">
-        <v>23</v>
-      </c>
       <c r="J15">
-        <v>148.3154320987653</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>GP5A</t>
-        </is>
+        <v>3.7441860465116279</v>
+      </c>
+      <c r="K15">
+        <v>148.31543209876531</v>
+      </c>
+      <c r="L15">
+        <v>76.75</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>21.744186046511629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>31</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -892,20 +1568,46 @@
         <v>12.25</v>
       </c>
       <c r="H16">
+        <v>6000.24</v>
+      </c>
+      <c r="I16">
         <v>68</v>
       </c>
-      <c r="I16">
-        <v>21</v>
-      </c>
       <c r="J16">
+        <v>2.25</v>
+      </c>
+      <c r="K16">
         <v>117.769230769231</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>GP5B</t>
-        </is>
+      <c r="L16">
+        <v>84.5</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>32</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -914,7 +1616,7 @@
         <v>19.25</v>
       </c>
       <c r="D17">
-        <v>1.621761658031088</v>
+        <v>1.6217616580310881</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -926,20 +1628,46 @@
         <v>5.2</v>
       </c>
       <c r="H17">
+        <v>10493.9</v>
+      </c>
+      <c r="I17">
         <v>69</v>
       </c>
-      <c r="I17">
-        <v>20</v>
-      </c>
       <c r="J17">
+        <v>3.7272727272727271</v>
+      </c>
+      <c r="K17">
         <v>118.9716791979949</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>GP5C</t>
-        </is>
+      <c r="L17">
+        <v>94.55</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>23.727272727272727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>33</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -948,7 +1676,7 @@
         <v>0.75</v>
       </c>
       <c r="D18">
-        <v>1.457073760580411</v>
+        <v>1.4570737605804109</v>
       </c>
       <c r="E18">
         <v>14.25</v>
@@ -960,20 +1688,46 @@
         <v>9.85</v>
       </c>
       <c r="H18">
+        <v>4457.88</v>
+      </c>
+      <c r="I18">
         <v>43</v>
       </c>
-      <c r="I18">
-        <v>12</v>
-      </c>
       <c r="J18">
-        <v>138.788235294118</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>GP5D</t>
-        </is>
+        <v>1.990654205607477</v>
+      </c>
+      <c r="K18">
+        <v>138.78823529411801</v>
+      </c>
+      <c r="L18">
+        <v>88.05</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>18.990654205607477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -994,20 +1748,46 @@
         <v>10.9</v>
       </c>
       <c r="H19">
+        <v>7059.25</v>
+      </c>
+      <c r="I19">
         <v>52</v>
       </c>
-      <c r="I19">
-        <v>18</v>
-      </c>
       <c r="J19">
-        <v>87.3396551724138</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>GP6A</t>
-        </is>
+        <v>4.1111111111111116</v>
+      </c>
+      <c r="K19">
+        <v>87.339655172413799</v>
+      </c>
+      <c r="L19">
+        <v>82.15</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>23.111111111111111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>35</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -1028,20 +1808,46 @@
         <v>13.25</v>
       </c>
       <c r="H20">
+        <v>17875.330000000002</v>
+      </c>
+      <c r="I20">
         <v>54</v>
       </c>
-      <c r="I20">
-        <v>19</v>
-      </c>
       <c r="J20">
+        <v>4.2799999999999994</v>
+      </c>
+      <c r="K20">
         <v>132.5315241246208</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>GP6B</t>
-        </is>
+      <c r="L20">
+        <v>84.15</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>24.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>36</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -1050,32 +1856,58 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>1.42857142857143</v>
+        <v>1.4285714285714299</v>
       </c>
       <c r="E21">
-        <v>7.64705882352941</v>
+        <v>7.6470588235294104</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>7.647058823529412</v>
+        <v>7.6470588235294121</v>
       </c>
       <c r="H21">
+        <v>9257.6</v>
+      </c>
+      <c r="I21">
         <v>53</v>
       </c>
-      <c r="I21">
-        <v>14</v>
-      </c>
       <c r="J21">
-        <v>264.7192810457515</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>GP6C</t>
-        </is>
+        <v>3.7619047619047619</v>
+      </c>
+      <c r="K21">
+        <v>264.71928104575147</v>
+      </c>
+      <c r="L21">
+        <v>92.352941176470594</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>24.761904761904763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>37</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -1096,20 +1928,43 @@
         <v>22.75</v>
       </c>
       <c r="H22">
+        <v>17043.18</v>
+      </c>
+      <c r="I22">
         <v>89</v>
       </c>
-      <c r="I22">
-        <v>21</v>
-      </c>
       <c r="J22">
-        <v>222.0063734115348</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>GP7</t>
-        </is>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K22">
+        <v>222.00637341153481</v>
+      </c>
+      <c r="L22">
+        <v>74.3</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>38</v>
       </c>
       <c r="B23">
         <v>9</v>
@@ -1118,7 +1973,7 @@
         <v>22.2</v>
       </c>
       <c r="D23">
-        <v>1.313364055299539</v>
+        <v>1.3133640552995389</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1130,20 +1985,46 @@
         <v>3.3</v>
       </c>
       <c r="H23">
+        <v>49180.473333333299</v>
+      </c>
+      <c r="I23">
         <v>87</v>
       </c>
-      <c r="I23">
-        <v>15</v>
-      </c>
       <c r="J23">
+        <v>4.8</v>
+      </c>
+      <c r="K23">
         <v>120.9827327327329</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>GP7A</t>
-        </is>
+      <c r="L23">
+        <v>95.5</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>39</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -1152,7 +2033,7 @@
         <v>5.5</v>
       </c>
       <c r="D24">
-        <v>0.4192771084337349</v>
+        <v>0.41927710843373489</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1163,18 +2044,41 @@
       <c r="G24">
         <v>84.5</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>49</v>
       </c>
-      <c r="I24">
+      <c r="J24">
+        <v>3.075471698113208</v>
+      </c>
+      <c r="L24">
         <v>14</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>GP8A</t>
-        </is>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>21.075471698113208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>40</v>
       </c>
       <c r="B25">
         <v>9</v>
@@ -1195,20 +2099,46 @@
         <v>39.375</v>
       </c>
       <c r="H25">
+        <v>43683.839999999997</v>
+      </c>
+      <c r="I25">
         <v>90</v>
       </c>
-      <c r="I25">
-        <v>19</v>
-      </c>
       <c r="J25">
+        <v>4.6875</v>
+      </c>
+      <c r="K25">
         <v>109.6465201465201</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>GP8B</t>
-        </is>
+      <c r="L25">
+        <v>55.625</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>22.6875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>41</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -1217,7 +2147,7 @@
         <v>26.45</v>
       </c>
       <c r="D26">
-        <v>1.779788838612368</v>
+        <v>1.7797888386123679</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1229,20 +2159,46 @@
         <v>12</v>
       </c>
       <c r="H26">
+        <v>975.8</v>
+      </c>
+      <c r="I26">
         <v>54</v>
       </c>
-      <c r="I26">
-        <v>15</v>
-      </c>
       <c r="J26">
-        <v>207.781818181818</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>GP8C</t>
-        </is>
+        <v>2.7272727272727271</v>
+      </c>
+      <c r="K26">
+        <v>207.78181818181801</v>
+      </c>
+      <c r="L26">
+        <v>87.3</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>25.727272727272727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>42</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -1257,20 +2213,43 @@
         <v>5</v>
       </c>
       <c r="F27">
-        <v>1.066666666705882</v>
+        <v>1.0666666667058819</v>
       </c>
       <c r="G27">
-        <v>18.66705882352941</v>
+        <v>18.667058823529409</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>46</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Horse</t>
-        </is>
+      <c r="L27">
+        <v>80.266274509764713</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>43</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -1279,7 +2258,7 @@
         <v>15.1</v>
       </c>
       <c r="D28">
-        <v>2.46551724137931</v>
+        <v>2.4655172413793101</v>
       </c>
       <c r="E28">
         <v>6.05</v>
@@ -1291,20 +2270,46 @@
         <v>19.55</v>
       </c>
       <c r="H28">
+        <v>11222.96</v>
+      </c>
+      <c r="I28">
         <v>53</v>
       </c>
-      <c r="I28">
-        <v>19</v>
-      </c>
       <c r="J28">
-        <v>144.341543707784</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Jimmy's Wet Meadow</t>
-        </is>
+        <v>4.7142857142857144</v>
+      </c>
+      <c r="K28">
+        <v>144.34154370778401</v>
+      </c>
+      <c r="L28">
+        <v>78.8</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>23.714285714285715</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>44</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -1313,7 +2318,7 @@
         <v>2.75</v>
       </c>
       <c r="D29">
-        <v>1.009259259259259</v>
+        <v>1.0092592592592591</v>
       </c>
       <c r="E29">
         <v>21</v>
@@ -1324,15 +2329,35 @@
       <c r="G29">
         <v>13</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>59</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Lamson Hill</t>
-        </is>
+      <c r="L29">
+        <v>77.5</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>45</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -1341,7 +2366,7 @@
         <v>4.8</v>
       </c>
       <c r="D30">
-        <v>1.36875</v>
+        <v>1.3687499999999999</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1353,20 +2378,46 @@
         <v>20.55</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>34</v>
       </c>
-      <c r="I30">
-        <v>11</v>
-      </c>
       <c r="J30">
-        <v>88.8909090909091</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Lamson Middle</t>
-        </is>
+        <v>4.0909090909090908</v>
+      </c>
+      <c r="K30">
+        <v>88.890909090909105</v>
+      </c>
+      <c r="L30">
+        <v>61.95</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>16.09090909090909</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>46</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -1375,32 +2426,58 @@
         <v>25.3333333333333</v>
       </c>
       <c r="D31">
-        <v>0.862190812720848</v>
+        <v>0.86219081272084797</v>
       </c>
       <c r="E31">
-        <v>14.5238095238095</v>
+        <v>14.523809523809501</v>
       </c>
       <c r="F31">
-        <v>6.809523809523809</v>
+        <v>6.8095238095238093</v>
       </c>
       <c r="G31">
         <v>15.47619047619048</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>48</v>
       </c>
-      <c r="I31">
-        <v>23</v>
-      </c>
       <c r="J31">
-        <v>94.77115987460826</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Lamson North</t>
-        </is>
+        <v>2.9740259740259738</v>
+      </c>
+      <c r="K31">
+        <v>94.771159874608259</v>
+      </c>
+      <c r="L31">
+        <v>77.714285714285722</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>19.974025974025974</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>47</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -1415,26 +2492,52 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>18.33333333333333</v>
+        <v>18.333333333333329</v>
       </c>
       <c r="G32">
-        <v>19.52380952380953</v>
+        <v>19.523809523809529</v>
       </c>
       <c r="H32">
+        <v>11521.2</v>
+      </c>
+      <c r="I32">
         <v>28</v>
       </c>
-      <c r="I32">
-        <v>10</v>
-      </c>
       <c r="J32">
+        <v>3.4705882352941169</v>
+      </c>
+      <c r="K32">
         <v>87.21992530345473</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Leo's</t>
-        </is>
+      <c r="L32">
+        <v>62.142857142857139</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>18.470588235294116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>48</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -1443,7 +2546,7 @@
         <v>25.75</v>
       </c>
       <c r="D33">
-        <v>1.014440433212996</v>
+        <v>1.0144404332129959</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1455,20 +2558,46 @@
         <v>12.3</v>
       </c>
       <c r="H33">
+        <v>25491.200000000001</v>
+      </c>
+      <c r="I33">
         <v>36</v>
       </c>
-      <c r="I33">
-        <v>9</v>
-      </c>
       <c r="J33">
-        <v>106.7856460532933</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Long Causeway</t>
-        </is>
+        <v>4.5833333333333339</v>
+      </c>
+      <c r="K33">
+        <v>106.78564605329331</v>
+      </c>
+      <c r="L33">
+        <v>74.650000000000006</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>4</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>21.583333333333336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>49</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -1477,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>8.222222222222221</v>
+        <v>8.2222222222222214</v>
       </c>
       <c r="E34">
         <v>71.75</v>
@@ -1488,15 +2617,35 @@
       <c r="G34">
         <v>32</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>28</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Long Meadow</t>
-        </is>
+      <c r="L34">
+        <v>63.75</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>5</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>50</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -1517,14 +2666,37 @@
         <v>16.5</v>
       </c>
       <c r="H35">
+        <v>37571.24</v>
+      </c>
+      <c r="I35">
         <v>56</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Lower Barberry</t>
-        </is>
+      <c r="L35">
+        <v>77.5</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>51</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -1533,7 +2705,7 @@
         <v>26.5</v>
       </c>
       <c r="D36">
-        <v>1.832627118644068</v>
+        <v>1.8326271186440679</v>
       </c>
       <c r="E36">
         <v>7</v>
@@ -1545,20 +2717,46 @@
         <v>13.1</v>
       </c>
       <c r="H36">
+        <v>5369.28</v>
+      </c>
+      <c r="I36">
         <v>67</v>
       </c>
-      <c r="I36">
-        <v>17</v>
-      </c>
       <c r="J36">
+        <v>3.1764705882352939</v>
+      </c>
+      <c r="K36">
         <v>166.344246031746</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Lower Sunset</t>
-        </is>
+      <c r="L36">
+        <v>84.8</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>4</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+      <c r="Q36">
+        <v>5</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="0"/>
+        <v>24.176470588235293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>52</v>
       </c>
       <c r="B37">
         <v>11</v>
@@ -1567,7 +2765,7 @@
         <v>8.6</v>
       </c>
       <c r="D37">
-        <v>2.805555555555555</v>
+        <v>2.8055555555555549</v>
       </c>
       <c r="E37">
         <v>7.75</v>
@@ -1578,15 +2776,41 @@
       <c r="G37">
         <v>11</v>
       </c>
-      <c r="J37">
-        <v>190.3761407175203</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Lower Triangle</t>
-        </is>
+      <c r="H37">
+        <v>25290</v>
+      </c>
+      <c r="K37">
+        <v>190.37614071752029</v>
+      </c>
+      <c r="L37">
+        <v>83.75</v>
+      </c>
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+      <c r="Q37">
+        <v>5</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>53</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -1595,7 +2819,7 @@
         <v>21.25</v>
       </c>
       <c r="D38">
-        <v>1.130841121495329</v>
+        <v>1.1308411214953289</v>
       </c>
       <c r="E38">
         <v>17.0833333333333</v>
@@ -1607,51 +2831,103 @@
         <v>15.33333333333333</v>
       </c>
       <c r="H38">
+        <v>9738.66</v>
+      </c>
+      <c r="I38">
         <v>86</v>
       </c>
-      <c r="I38">
-        <v>19</v>
-      </c>
       <c r="J38">
+        <v>3.375</v>
+      </c>
+      <c r="K38">
         <v>121.5174669533575</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Lower Underhill</t>
-        </is>
+      <c r="L38">
+        <v>79.333333333333329</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <v>3</v>
+      </c>
+      <c r="Q38">
+        <v>5</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="0"/>
+        <v>21.375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>54</v>
       </c>
       <c r="B39">
         <v>7</v>
       </c>
       <c r="C39">
-        <v>1.18181818181818</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="D39">
-        <v>1.106796116504854</v>
+        <v>1.1067961165048541</v>
       </c>
       <c r="E39">
-        <v>27.2727272727273</v>
+        <v>27.272727272727298</v>
       </c>
       <c r="F39">
-        <v>0.9090909090909091</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="G39">
         <v>22.72727272727273</v>
       </c>
       <c r="H39">
+        <v>10908.281999999999</v>
+      </c>
+      <c r="I39">
         <v>64</v>
       </c>
-      <c r="J39">
-        <v>187.4384741695087</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>POW West</t>
-        </is>
+      <c r="K39">
+        <v>187.43847416950871</v>
+      </c>
+      <c r="L39">
+        <v>76.36363636363636</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>4</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>55</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -1660,7 +2936,7 @@
         <v>3.2</v>
       </c>
       <c r="D40">
-        <v>1.38030888030888</v>
+        <v>1.3803088803088801</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1671,18 +2947,41 @@
       <c r="G40">
         <v>13.8</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>64</v>
       </c>
-      <c r="I40">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Plains</t>
-        </is>
+      <c r="J40">
+        <v>3.8461538461538458</v>
+      </c>
+      <c r="L40">
+        <v>83.3</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <v>5</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="0"/>
+        <v>19.846153846153847</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>56</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -1697,26 +2996,52 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>16.15</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="G41">
         <v>7.25</v>
       </c>
       <c r="H41">
+        <v>91599.2</v>
+      </c>
+      <c r="I41">
         <v>28</v>
       </c>
-      <c r="I41">
-        <v>12</v>
-      </c>
       <c r="J41">
+        <v>4.5555555555555554</v>
+      </c>
+      <c r="K41">
         <v>112.6163023063631</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Plains Woods North</t>
-        </is>
+      <c r="L41">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>3</v>
+      </c>
+      <c r="Q41">
+        <v>5</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="0"/>
+        <v>18.555555555555557</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>57</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -1725,7 +3050,7 @@
         <v>5.25</v>
       </c>
       <c r="D42">
-        <v>1.302040816326531</v>
+        <v>1.3020408163265309</v>
       </c>
       <c r="E42">
         <v>38.75</v>
@@ -1737,14 +3062,37 @@
         <v>11</v>
       </c>
       <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
         <v>63</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Playground</t>
-        </is>
+      <c r="L42">
+        <v>88.75</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <v>5</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>58</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -1765,20 +3113,46 @@
         <v>4.5</v>
       </c>
       <c r="H43">
+        <v>27112.400000000001</v>
+      </c>
+      <c r="I43">
         <v>28</v>
       </c>
-      <c r="I43">
-        <v>23</v>
-      </c>
       <c r="J43">
-        <v>79.27575757575761</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Playground Pond</t>
-        </is>
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="K43">
+        <v>79.275757575757609</v>
+      </c>
+      <c r="L43">
+        <v>82.25</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+      <c r="Q43">
+        <v>5</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="0"/>
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>59</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -1790,7 +3164,7 @@
         <v>1.10593220338983</v>
       </c>
       <c r="E44">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="F44">
         <v>2.8</v>
@@ -1798,15 +3172,35 @@
       <c r="G44">
         <v>13.75</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>60</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Pond</t>
-        </is>
+      <c r="L44">
+        <v>83.45</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>5</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>60</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -1815,7 +3209,7 @@
         <v>0.5</v>
       </c>
       <c r="D45">
-        <v>3.284090909090909</v>
+        <v>3.2840909090909092</v>
       </c>
       <c r="E45">
         <v>56.25</v>
@@ -1827,26 +3221,52 @@
         <v>36</v>
       </c>
       <c r="H45">
+        <v>5606.6959999999999</v>
+      </c>
+      <c r="I45">
         <v>38</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>123.931034482759</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Sunset Field</t>
-        </is>
+      <c r="L45">
+        <v>58.75</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>3</v>
+      </c>
+      <c r="Q45">
+        <v>5</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>61</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="D46">
-        <v>1.442307692307692</v>
+        <v>1.4423076923076921</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1858,20 +3278,46 @@
         <v>13.3</v>
       </c>
       <c r="H46">
+        <v>2144.5419999999999</v>
+      </c>
+      <c r="I46">
         <v>45</v>
       </c>
-      <c r="I46">
-        <v>15</v>
-      </c>
       <c r="J46">
+        <v>3.3529411764705879</v>
+      </c>
+      <c r="K46">
         <v>120.2738641475481</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Sunset Hill</t>
-        </is>
+      <c r="L46">
+        <v>85.2</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>5</v>
+      </c>
+      <c r="P46">
+        <v>3</v>
+      </c>
+      <c r="Q46">
+        <v>5</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="0"/>
+        <v>25.352941176470587</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>62</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -1880,32 +3326,58 @@
         <v>35.85</v>
       </c>
       <c r="D47">
-        <v>1.06015037593985</v>
+        <v>1.0601503759398501</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G47">
         <v>15.15</v>
       </c>
       <c r="H47">
+        <v>24713.78</v>
+      </c>
+      <c r="I47">
         <v>60</v>
       </c>
-      <c r="I47">
-        <v>18</v>
-      </c>
       <c r="J47">
-        <v>186.3816339869283</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Underhill</t>
-        </is>
+        <v>4.6521739130434776</v>
+      </c>
+      <c r="K47">
+        <v>186.38163398692831</v>
+      </c>
+      <c r="L47">
+        <v>82.65</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47">
+        <v>5</v>
+      </c>
+      <c r="P47">
+        <v>4</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="0"/>
+        <v>26.652173913043477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>63</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -1926,20 +3398,46 @@
         <v>16.25</v>
       </c>
       <c r="H48">
+        <v>10473.308999999999</v>
+      </c>
+      <c r="I48">
         <v>94</v>
       </c>
-      <c r="I48">
-        <v>20</v>
-      </c>
       <c r="J48">
+        <v>4.2142857142857144</v>
+      </c>
+      <c r="K48">
         <v>146.6</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Underhill Wet Meadow</t>
-        </is>
+      <c r="L48">
+        <v>77.25</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <v>3</v>
+      </c>
+      <c r="Q48">
+        <v>5</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="0"/>
+        <v>21.214285714285715</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>64</v>
       </c>
       <c r="B49">
         <v>8</v>
@@ -1948,7 +3446,7 @@
         <v>5.6</v>
       </c>
       <c r="D49">
-        <v>3.66120218579235</v>
+        <v>3.6612021857923498</v>
       </c>
       <c r="E49">
         <v>28.55</v>
@@ -1960,17 +3458,43 @@
         <v>13.75</v>
       </c>
       <c r="H49">
+        <v>25760</v>
+      </c>
+      <c r="I49">
         <v>67</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>147.1857142857142</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Upper Triangle</t>
-        </is>
+      <c r="L49">
+        <v>82.9</v>
+      </c>
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <v>3</v>
+      </c>
+      <c r="Q49">
+        <v>5</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>65</v>
       </c>
       <c r="B50">
         <v>9</v>
@@ -1991,20 +3515,46 @@
         <v>23</v>
       </c>
       <c r="H50">
+        <v>5719.65</v>
+      </c>
+      <c r="I50">
         <v>90</v>
       </c>
-      <c r="I50">
-        <v>22</v>
-      </c>
       <c r="J50">
-        <v>155.869467787115</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Williams 1A</t>
-        </is>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K50">
+        <v>155.86946778711501</v>
+      </c>
+      <c r="L50">
+        <v>70.75</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50">
+        <v>4</v>
+      </c>
+      <c r="Q50">
+        <v>5</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="0"/>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>66</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -2013,7 +3563,7 @@
         <v>26.6666666666667</v>
       </c>
       <c r="D51">
-        <v>1.367816091954022</v>
+        <v>1.3678160919540221</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -2025,20 +3575,46 @@
         <v>47.5</v>
       </c>
       <c r="H51">
+        <v>3634</v>
+      </c>
+      <c r="I51">
         <v>76</v>
       </c>
-      <c r="I51">
-        <v>15</v>
-      </c>
       <c r="J51">
-        <v>97.38708994708983</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Williams Central</t>
-        </is>
+        <v>3.875</v>
+      </c>
+      <c r="K51">
+        <v>97.387089947089834</v>
+      </c>
+      <c r="L51">
+        <v>40.416666666666657</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>4</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>5</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="0"/>
+        <v>18.875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>67</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -2047,7 +3623,7 @@
         <v>16.25</v>
       </c>
       <c r="D52">
-        <v>1.394736842105263</v>
+        <v>1.3947368421052631</v>
       </c>
       <c r="E52">
         <v>43.5</v>
@@ -2058,24 +3634,47 @@
       <c r="G52">
         <v>20.25</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>72</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Williams West</t>
-        </is>
+      <c r="L52">
+        <v>79.25</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>4</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>3</v>
+      </c>
+      <c r="Q52">
+        <v>5</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>68</v>
       </c>
       <c r="B53">
         <v>10</v>
       </c>
       <c r="C53">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D53">
-        <v>1.900763358778626</v>
+        <v>1.9007633587786259</v>
       </c>
       <c r="E53">
         <v>19.5</v>
@@ -2087,32 +3686,58 @@
         <v>34.25</v>
       </c>
       <c r="H53">
+        <v>6468</v>
+      </c>
+      <c r="I53">
         <v>71</v>
       </c>
-      <c r="I53">
-        <v>18</v>
-      </c>
       <c r="J53">
-        <v>102.0391731643926</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Wilson</t>
-        </is>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="K53">
+        <v>102.03917316439259</v>
+      </c>
+      <c r="L53">
+        <v>55.25</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>3</v>
+      </c>
+      <c r="Q53">
+        <v>5</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="0"/>
+        <v>18.333333333333332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>69</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>33.5714285714286</v>
+        <v>33.571428571428598</v>
       </c>
       <c r="D54">
-        <v>1.456273764258556</v>
+        <v>1.4562737642585559</v>
       </c>
       <c r="E54">
-        <v>2.14285714285714</v>
+        <v>2.1428571428571401</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2121,13 +3746,41 @@
         <v>15.71428571428571</v>
       </c>
       <c r="H54">
+        <v>20590.2</v>
+      </c>
+      <c r="I54">
         <v>44</v>
       </c>
-      <c r="I54">
-        <v>20</v>
-      </c>
       <c r="J54">
-        <v>146.1110273239304</v>
+        <v>4.5</v>
+      </c>
+      <c r="K54">
+        <v>146.11102732393039</v>
+      </c>
+      <c r="L54">
+        <v>84.285714285714292</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>5</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+      <c r="Q54">
+        <v>5</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
       </c>
     </row>
   </sheetData>
